--- a/paper_figures_tables/default_parameters.xlsx
+++ b/paper_figures_tables/default_parameters.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r1702898\Documents\Urbano\MercadoImobiliario\HousingPaper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r1702898\Documents\Urbano\MercadoImobiliario\RentalOwnership2\paper_figures_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -590,9 +590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A1:D22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -621,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="12">
-        <v>800000</v>
+        <v>400000</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>25</v>
@@ -633,7 +631,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="12">
-        <v>240000</v>
+        <v>120000</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>25</v>
@@ -659,7 +657,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="12">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>26</v>
@@ -671,7 +669,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="12">
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>26</v>
@@ -751,7 +749,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>36</v>
@@ -779,7 +777,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="12">
-        <v>0.04</v>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>26</v>
@@ -791,7 +789,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="12">
-        <v>0.05</v>
+        <v>5.3699999999999998E-2</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>26</v>
@@ -833,7 +831,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="12">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>42</v>
